--- a/test_cases/TC-4/PE-53.xlsx
+++ b/test_cases/TC-4/PE-53.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95366C9C-061A-4EFD-BAFB-A3B9C1475913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD9FD0-9A17-4950-A8B1-BE4A3E42DFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -106,20 +106,58 @@
 Modificar Cuenta</t>
   </si>
   <si>
-    <t>TC-4</t>
-  </si>
-  <si>
     <t>User e-mail nuevo = pepe2@gmail.com</t>
+  </si>
+  <si>
+    <t>TC-4-1</t>
+  </si>
+  <si>
+    <t>NDOB = 15/01/95</t>
+  </si>
+  <si>
+    <t>Phone = 9876</t>
+  </si>
+  <si>
+    <t>TC-4-2</t>
+  </si>
+  <si>
+    <t>PE-53
+Modificar Cuenta government ID</t>
+  </si>
+  <si>
+    <t>Como Usuario quiero poder modificar mi government ID</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>TC-4-3</t>
+  </si>
+  <si>
+    <t>ID = 1234</t>
+  </si>
+  <si>
+    <t>Adres = calle verdad</t>
+  </si>
+  <si>
+    <t>PE-53
+Modificar Cuenta e-mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -299,12 +337,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,30 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,18 +695,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,25 +714,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="12" t="s">
-        <v>27</v>
+      <c r="G3" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -700,204 +741,351 @@
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G31" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="20"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="E34" s="24"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D35" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="E35" s="26"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="E36" s="28"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="2"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G31:G32"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
